--- a/220309.xlsx
+++ b/220309.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P366"/>
+  <dimension ref="A1:V366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,36 @@
           <t>KRW-XRP_volume</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>KRW-BTC_1/0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>KRW-ETH_1/0</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>KRW-XRP_1/0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -559,6 +589,18 @@
         <v>519</v>
       </c>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -603,6 +645,18 @@
         <v>510</v>
       </c>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -647,6 +701,18 @@
         <v>528</v>
       </c>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -691,6 +757,18 @@
         <v>511</v>
       </c>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -741,6 +819,24 @@
       <c r="P6" t="n">
         <v>207219184089.489</v>
       </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -791,6 +887,24 @@
       <c r="P7" t="n">
         <v>330296856887.0042</v>
       </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -841,6 +955,24 @@
       <c r="P8" t="n">
         <v>351377569697.8657</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -891,6 +1023,24 @@
       <c r="P9" t="n">
         <v>357199671488.3812</v>
       </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -941,6 +1091,24 @@
       <c r="P10" t="n">
         <v>367489068186.823</v>
       </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -991,6 +1159,24 @@
       <c r="P11" t="n">
         <v>443678344597.2739</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1041,6 +1227,24 @@
       <c r="P12" t="n">
         <v>353265830967.8</v>
       </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1091,6 +1295,24 @@
       <c r="P13" t="n">
         <v>475092344217.2698</v>
       </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1141,6 +1363,24 @@
       <c r="P14" t="n">
         <v>545880536778.7698</v>
       </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1191,6 +1431,24 @@
       <c r="P15" t="n">
         <v>590484621465.7285</v>
       </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1241,6 +1499,24 @@
       <c r="P16" t="n">
         <v>547013289475.7964</v>
       </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1291,6 +1567,24 @@
       <c r="P17" t="n">
         <v>553322296383.1276</v>
       </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1341,6 +1635,24 @@
       <c r="P18" t="n">
         <v>406499275316.3082</v>
       </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1391,6 +1703,24 @@
       <c r="P19" t="n">
         <v>320370906969.0988</v>
       </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1441,6 +1771,24 @@
       <c r="P20" t="n">
         <v>291543711526.6633</v>
       </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1491,6 +1839,24 @@
       <c r="P21" t="n">
         <v>254179565995.1247</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1541,6 +1907,24 @@
       <c r="P22" t="n">
         <v>253744690117.4027</v>
       </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1591,6 +1975,24 @@
       <c r="P23" t="n">
         <v>298762443718.3245</v>
       </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1641,6 +2043,24 @@
       <c r="P24" t="n">
         <v>378908042918.6645</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1691,6 +2111,24 @@
       <c r="P25" t="n">
         <v>467970501654.2705</v>
       </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1741,6 +2179,24 @@
       <c r="P26" t="n">
         <v>499878643657.3504</v>
       </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1791,6 +2247,24 @@
       <c r="P27" t="n">
         <v>1006829842158.461</v>
       </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1841,6 +2315,24 @@
       <c r="P28" t="n">
         <v>1628662795416.832</v>
       </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1891,6 +2383,24 @@
       <c r="P29" t="n">
         <v>2097957048464.507</v>
       </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1941,6 +2451,24 @@
       <c r="P30" t="n">
         <v>2373308052527.015</v>
       </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1991,6 +2519,24 @@
       <c r="P31" t="n">
         <v>2630310833716.693</v>
       </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2041,6 +2587,24 @@
       <c r="P32" t="n">
         <v>2573861362355.468</v>
       </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2091,6 +2655,24 @@
       <c r="P33" t="n">
         <v>2325067399990.472</v>
       </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2141,6 +2723,24 @@
       <c r="P34" t="n">
         <v>2038882624627.353</v>
       </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2191,6 +2791,24 @@
       <c r="P35" t="n">
         <v>2513507264852.994</v>
       </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2241,6 +2859,24 @@
       <c r="P36" t="n">
         <v>3168641676953.686</v>
       </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2291,6 +2927,24 @@
       <c r="P37" t="n">
         <v>2707639282537.186</v>
       </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2341,6 +2995,24 @@
       <c r="P38" t="n">
         <v>2661576048306.503</v>
       </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2391,6 +3063,24 @@
       <c r="P39" t="n">
         <v>2704440250660.235</v>
       </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2441,6 +3131,24 @@
       <c r="P40" t="n">
         <v>2763811098191.505</v>
       </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2491,6 +3199,24 @@
       <c r="P41" t="n">
         <v>2491058268552.235</v>
       </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2541,6 +3267,24 @@
       <c r="P42" t="n">
         <v>2750884501907.711</v>
       </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2591,6 +3335,24 @@
       <c r="P43" t="n">
         <v>2530205768818.501</v>
       </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2641,6 +3403,24 @@
       <c r="P44" t="n">
         <v>2681327444147.695</v>
       </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2691,6 +3471,24 @@
       <c r="P45" t="n">
         <v>2795152789367.186</v>
       </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2741,6 +3539,24 @@
       <c r="P46" t="n">
         <v>2550047852485.562</v>
       </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2791,6 +3607,24 @@
       <c r="P47" t="n">
         <v>2210770096821.925</v>
       </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2841,6 +3675,24 @@
       <c r="P48" t="n">
         <v>2359798455484.772</v>
       </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2891,6 +3743,24 @@
       <c r="P49" t="n">
         <v>2376986838633.072</v>
       </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2941,6 +3811,24 @@
       <c r="P50" t="n">
         <v>1902718233892.153</v>
       </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2991,6 +3879,24 @@
       <c r="P51" t="n">
         <v>1920268047273.443</v>
       </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3041,6 +3947,24 @@
       <c r="P52" t="n">
         <v>2218583987799.333</v>
       </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3091,6 +4015,24 @@
       <c r="P53" t="n">
         <v>1954422117076.234</v>
       </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3141,6 +4083,24 @@
       <c r="P54" t="n">
         <v>1674026658216.392</v>
       </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3191,6 +4151,24 @@
       <c r="P55" t="n">
         <v>1513092489433.497</v>
       </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3241,6 +4219,24 @@
       <c r="P56" t="n">
         <v>1690751231895.743</v>
       </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3291,6 +4287,24 @@
       <c r="P57" t="n">
         <v>1619967425887.976</v>
       </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3341,6 +4355,24 @@
       <c r="P58" t="n">
         <v>1897375152368.677</v>
       </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3391,6 +4423,24 @@
       <c r="P59" t="n">
         <v>2042152250875.701</v>
       </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3441,6 +4491,24 @@
       <c r="P60" t="n">
         <v>1991073223805.35</v>
       </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3491,6 +4559,24 @@
       <c r="P61" t="n">
         <v>1745687662485.262</v>
       </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3541,6 +4627,24 @@
       <c r="P62" t="n">
         <v>1548330312128.259</v>
       </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3591,6 +4695,24 @@
       <c r="P63" t="n">
         <v>1276206003944.133</v>
       </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3641,6 +4763,24 @@
       <c r="P64" t="n">
         <v>1182793466071.943</v>
       </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3691,6 +4831,24 @@
       <c r="P65" t="n">
         <v>1373311830183.169</v>
       </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3741,6 +4899,24 @@
       <c r="P66" t="n">
         <v>1392120446185.198</v>
       </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3791,6 +4967,24 @@
       <c r="P67" t="n">
         <v>1592331187656.5</v>
       </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3841,6 +5035,24 @@
       <c r="P68" t="n">
         <v>1769728864398.672</v>
       </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3891,6 +5103,24 @@
       <c r="P69" t="n">
         <v>2265545626044.121</v>
       </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3941,6 +5171,24 @@
       <c r="P70" t="n">
         <v>2587558419002.167</v>
       </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3991,6 +5239,24 @@
       <c r="P71" t="n">
         <v>3592787616408.855</v>
       </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4041,6 +5307,24 @@
       <c r="P72" t="n">
         <v>3635390026698.846</v>
       </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4091,6 +5375,24 @@
       <c r="P73" t="n">
         <v>3555460242454.405</v>
       </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4141,6 +5443,24 @@
       <c r="P74" t="n">
         <v>3068400812704.123</v>
       </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4191,6 +5511,24 @@
       <c r="P75" t="n">
         <v>2945029361156.076</v>
       </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4241,6 +5579,24 @@
       <c r="P76" t="n">
         <v>2365124349191.156</v>
       </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4291,6 +5647,24 @@
       <c r="P77" t="n">
         <v>2144187527038.172</v>
       </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4341,6 +5715,24 @@
       <c r="P78" t="n">
         <v>1931210620276.389</v>
       </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4391,6 +5783,24 @@
       <c r="P79" t="n">
         <v>1765290203516.058</v>
       </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4441,6 +5851,24 @@
       <c r="P80" t="n">
         <v>1343065962457.995</v>
       </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4491,6 +5919,24 @@
       <c r="P81" t="n">
         <v>1059782917750.712</v>
       </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4541,6 +5987,24 @@
       <c r="P82" t="n">
         <v>865410751136.1375</v>
       </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4591,6 +6055,24 @@
       <c r="P83" t="n">
         <v>969871515001.0897</v>
       </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4641,6 +6123,24 @@
       <c r="P84" t="n">
         <v>1075687292959.188</v>
       </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4691,6 +6191,24 @@
       <c r="P85" t="n">
         <v>982204978777.1764</v>
       </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4741,6 +6259,24 @@
       <c r="P86" t="n">
         <v>939462364647.3052</v>
       </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4791,6 +6327,24 @@
       <c r="P87" t="n">
         <v>909613511036.1382</v>
       </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4841,6 +6395,24 @@
       <c r="P88" t="n">
         <v>660864737681.2494</v>
       </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4891,6 +6463,24 @@
       <c r="P89" t="n">
         <v>441654377415.314</v>
       </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4941,6 +6531,24 @@
       <c r="P90" t="n">
         <v>424450013778.2867</v>
       </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4991,6 +6599,24 @@
       <c r="P91" t="n">
         <v>500677139852.7279</v>
       </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5041,6 +6667,24 @@
       <c r="P92" t="n">
         <v>524558562927.142</v>
       </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5091,6 +6735,24 @@
       <c r="P93" t="n">
         <v>531124181375.9271</v>
       </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5141,6 +6803,24 @@
       <c r="P94" t="n">
         <v>537588915678.3442</v>
       </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5191,6 +6871,24 @@
       <c r="P95" t="n">
         <v>510026647176.5775</v>
       </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5241,6 +6939,24 @@
       <c r="P96" t="n">
         <v>391192263296.2813</v>
       </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5291,6 +7007,24 @@
       <c r="P97" t="n">
         <v>308940116669.0323</v>
       </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5341,6 +7075,24 @@
       <c r="P98" t="n">
         <v>281813594653.8824</v>
       </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5391,6 +7143,24 @@
       <c r="P99" t="n">
         <v>288223681683.3793</v>
       </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5441,6 +7211,24 @@
       <c r="P100" t="n">
         <v>269199828609.3644</v>
       </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5491,6 +7279,24 @@
       <c r="P101" t="n">
         <v>281469036917.3047</v>
       </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5541,6 +7347,24 @@
       <c r="P102" t="n">
         <v>264006520878.1991</v>
       </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5591,6 +7415,24 @@
       <c r="P103" t="n">
         <v>342060848362.3383</v>
       </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5641,6 +7483,24 @@
       <c r="P104" t="n">
         <v>512440311313.7756</v>
       </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5691,6 +7551,24 @@
       <c r="P105" t="n">
         <v>768268698785.783</v>
       </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5741,6 +7619,24 @@
       <c r="P106" t="n">
         <v>917809395429.5409</v>
       </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5791,6 +7687,24 @@
       <c r="P107" t="n">
         <v>977895623749.0687</v>
       </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5841,6 +7755,24 @@
       <c r="P108" t="n">
         <v>960548826101.4785</v>
       </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5891,6 +7823,24 @@
       <c r="P109" t="n">
         <v>833720461033.1423</v>
       </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5941,6 +7891,24 @@
       <c r="P110" t="n">
         <v>620000679346.3035</v>
       </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5991,6 +7959,24 @@
       <c r="P111" t="n">
         <v>464875733795.036</v>
       </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6041,6 +8027,24 @@
       <c r="P112" t="n">
         <v>464110461398.4613</v>
       </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6091,6 +8095,24 @@
       <c r="P113" t="n">
         <v>414894306072.4547</v>
       </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6141,6 +8163,24 @@
       <c r="P114" t="n">
         <v>408543156721.2566</v>
       </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6191,6 +8231,24 @@
       <c r="P115" t="n">
         <v>392880981618.2789</v>
       </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6241,6 +8299,24 @@
       <c r="P116" t="n">
         <v>367859091318.8694</v>
       </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6291,6 +8367,24 @@
       <c r="P117" t="n">
         <v>283484150232.9369</v>
       </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6341,6 +8435,24 @@
       <c r="P118" t="n">
         <v>266761773493.0645</v>
       </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6391,6 +8503,24 @@
       <c r="P119" t="n">
         <v>240198542055.0555</v>
       </c>
+      <c r="Q119" t="n">
+        <v>2</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1</v>
+      </c>
+      <c r="U119" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6441,6 +8571,24 @@
       <c r="P120" t="n">
         <v>228420675408.5202</v>
       </c>
+      <c r="Q120" t="n">
+        <v>2</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6491,6 +8639,24 @@
       <c r="P121" t="n">
         <v>233827436810.6098</v>
       </c>
+      <c r="Q121" t="n">
+        <v>2</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6541,6 +8707,24 @@
       <c r="P122" t="n">
         <v>246252561233.6984</v>
       </c>
+      <c r="Q122" t="n">
+        <v>2</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>3</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6591,6 +8775,24 @@
       <c r="P123" t="n">
         <v>208580322260.1932</v>
       </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6641,6 +8843,24 @@
       <c r="P124" t="n">
         <v>189542003461.6255</v>
       </c>
+      <c r="Q124" t="n">
+        <v>2</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6691,6 +8911,24 @@
       <c r="P125" t="n">
         <v>198825643333.6776</v>
       </c>
+      <c r="Q125" t="n">
+        <v>2</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>3</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6741,6 +8979,24 @@
       <c r="P126" t="n">
         <v>184139901008.7951</v>
       </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1</v>
+      </c>
+      <c r="S126" t="n">
+        <v>3</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6791,6 +9047,24 @@
       <c r="P127" t="n">
         <v>178066173238.6069</v>
       </c>
+      <c r="Q127" t="n">
+        <v>2</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6841,6 +9115,24 @@
       <c r="P128" t="n">
         <v>187645670844.9919</v>
       </c>
+      <c r="Q128" t="n">
+        <v>2</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>3</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6891,6 +9183,24 @@
       <c r="P129" t="n">
         <v>209355307557.986</v>
       </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6941,6 +9251,24 @@
       <c r="P130" t="n">
         <v>201860301232.56</v>
       </c>
+      <c r="Q130" t="n">
+        <v>2</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>3</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6991,6 +9319,24 @@
       <c r="P131" t="n">
         <v>195139444118.593</v>
       </c>
+      <c r="Q131" t="n">
+        <v>2</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>3</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7041,6 +9387,24 @@
       <c r="P132" t="n">
         <v>176703064896.0596</v>
       </c>
+      <c r="Q132" t="n">
+        <v>1</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2</v>
+      </c>
+      <c r="S132" t="n">
+        <v>3</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7091,6 +9455,24 @@
       <c r="P133" t="n">
         <v>196647682666.323</v>
       </c>
+      <c r="Q133" t="n">
+        <v>3</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7141,6 +9523,24 @@
       <c r="P134" t="n">
         <v>210581208661.9268</v>
       </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>1</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7191,6 +9591,24 @@
       <c r="P135" t="n">
         <v>238538696505.8449</v>
       </c>
+      <c r="Q135" t="n">
+        <v>3</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1</v>
+      </c>
+      <c r="V135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7241,6 +9659,24 @@
       <c r="P136" t="n">
         <v>258382066562.2172</v>
       </c>
+      <c r="Q136" t="n">
+        <v>3</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7291,6 +9727,24 @@
       <c r="P137" t="n">
         <v>260631481311.6939</v>
       </c>
+      <c r="Q137" t="n">
+        <v>3</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7341,6 +9795,24 @@
       <c r="P138" t="n">
         <v>231412005046.4613</v>
       </c>
+      <c r="Q138" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>2</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7391,6 +9863,24 @@
       <c r="P139" t="n">
         <v>263107077274.5752</v>
       </c>
+      <c r="Q139" t="n">
+        <v>2</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>3</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7441,6 +9931,24 @@
       <c r="P140" t="n">
         <v>244787211324.4536</v>
       </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>3</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7491,6 +9999,24 @@
       <c r="P141" t="n">
         <v>441349443296.8851</v>
       </c>
+      <c r="Q141" t="n">
+        <v>2</v>
+      </c>
+      <c r="R141" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>1</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7541,6 +10067,24 @@
       <c r="P142" t="n">
         <v>502986425214.2537</v>
       </c>
+      <c r="Q142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>1</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7591,6 +10135,24 @@
       <c r="P143" t="n">
         <v>565730120616.5195</v>
       </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>1</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7641,6 +10203,24 @@
       <c r="P144" t="n">
         <v>513631966916.7166</v>
       </c>
+      <c r="Q144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7691,6 +10271,24 @@
       <c r="P145" t="n">
         <v>524433033342.0499</v>
       </c>
+      <c r="Q145" t="n">
+        <v>2</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>1</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7741,6 +10339,24 @@
       <c r="P146" t="n">
         <v>303556490771.1278</v>
       </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" t="n">
+        <v>2</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7791,6 +10407,24 @@
       <c r="P147" t="n">
         <v>252689621339.2954</v>
       </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7841,6 +10475,24 @@
       <c r="P148" t="n">
         <v>214565543690.1429</v>
       </c>
+      <c r="Q148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7891,6 +10543,24 @@
       <c r="P149" t="n">
         <v>214324725612.2543</v>
       </c>
+      <c r="Q149" t="n">
+        <v>2</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>3</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7941,6 +10611,24 @@
       <c r="P150" t="n">
         <v>196926735336.4146</v>
       </c>
+      <c r="Q150" t="n">
+        <v>2</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>3</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7991,6 +10679,24 @@
       <c r="P151" t="n">
         <v>243090571293.4549</v>
       </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8041,6 +10747,24 @@
       <c r="P152" t="n">
         <v>278260167221.548</v>
       </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>3</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8091,6 +10815,24 @@
       <c r="P153" t="n">
         <v>310096337945.278</v>
       </c>
+      <c r="Q153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" t="n">
+        <v>3</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1</v>
+      </c>
+      <c r="U153" t="n">
+        <v>1</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8141,6 +10883,24 @@
       <c r="P154" t="n">
         <v>376256749870.8851</v>
       </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>3</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8191,6 +10951,24 @@
       <c r="P155" t="n">
         <v>503281766779.8104</v>
       </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>2</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8241,6 +11019,24 @@
       <c r="P156" t="n">
         <v>549948224758.3088</v>
       </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>2</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8291,6 +11087,24 @@
       <c r="P157" t="n">
         <v>606804051440.3125</v>
       </c>
+      <c r="Q157" t="n">
+        <v>2</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>1</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8341,6 +11155,24 @@
       <c r="P158" t="n">
         <v>874810800371.2445</v>
       </c>
+      <c r="Q158" t="n">
+        <v>2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8391,6 +11223,24 @@
       <c r="P159" t="n">
         <v>1076178583839.195</v>
       </c>
+      <c r="Q159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R159" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8441,6 +11291,24 @@
       <c r="P160" t="n">
         <v>1091737983307.261</v>
       </c>
+      <c r="Q160" t="n">
+        <v>2</v>
+      </c>
+      <c r="R160" t="n">
+        <v>3</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8491,6 +11359,24 @@
       <c r="P161" t="n">
         <v>1130842844365.147</v>
       </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8541,6 +11427,24 @@
       <c r="P162" t="n">
         <v>1205634273534.469</v>
       </c>
+      <c r="Q162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8591,6 +11495,24 @@
       <c r="P163" t="n">
         <v>1004055634379.604</v>
       </c>
+      <c r="Q163" t="n">
+        <v>2</v>
+      </c>
+      <c r="R163" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>1</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8641,6 +11563,24 @@
       <c r="P164" t="n">
         <v>875381026284.7875</v>
       </c>
+      <c r="Q164" t="n">
+        <v>2</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>1</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8691,6 +11631,24 @@
       <c r="P165" t="n">
         <v>815612155836.3588</v>
       </c>
+      <c r="Q165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R165" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" t="n">
+        <v>1</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8741,6 +11699,24 @@
       <c r="P166" t="n">
         <v>710424980491.4713</v>
       </c>
+      <c r="Q166" t="n">
+        <v>2</v>
+      </c>
+      <c r="R166" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>1</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8791,6 +11767,24 @@
       <c r="P167" t="n">
         <v>666415248132.1096</v>
       </c>
+      <c r="Q167" t="n">
+        <v>2</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" t="n">
+        <v>1</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8841,6 +11835,24 @@
       <c r="P168" t="n">
         <v>636959764023.1141</v>
       </c>
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8891,6 +11903,24 @@
       <c r="P169" t="n">
         <v>590999303038.0682</v>
       </c>
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8941,6 +11971,24 @@
       <c r="P170" t="n">
         <v>596868805798.6689</v>
       </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>2</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8991,6 +12039,24 @@
       <c r="P171" t="n">
         <v>652467727834.0354</v>
       </c>
+      <c r="Q171" t="n">
+        <v>2</v>
+      </c>
+      <c r="R171" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9041,6 +12107,24 @@
       <c r="P172" t="n">
         <v>567873048430.8102</v>
       </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" t="n">
+        <v>2</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9091,6 +12175,24 @@
       <c r="P173" t="n">
         <v>521885441781.8813</v>
       </c>
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>3</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0</v>
+      </c>
+      <c r="V173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9141,6 +12243,24 @@
       <c r="P174" t="n">
         <v>467459814760.3774</v>
       </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="n">
+        <v>3</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0</v>
+      </c>
+      <c r="V174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9191,6 +12311,24 @@
       <c r="P175" t="n">
         <v>501552612907.6427</v>
       </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>3</v>
+      </c>
+      <c r="S175" t="n">
+        <v>2</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9241,6 +12379,24 @@
       <c r="P176" t="n">
         <v>466426655114.2009</v>
       </c>
+      <c r="Q176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>2</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9291,6 +12447,24 @@
       <c r="P177" t="n">
         <v>517750890735.1663</v>
       </c>
+      <c r="Q177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>2</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9341,6 +12515,24 @@
       <c r="P178" t="n">
         <v>578222273075.215</v>
       </c>
+      <c r="Q178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R178" t="n">
+        <v>3</v>
+      </c>
+      <c r="S178" t="n">
+        <v>2</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9391,6 +12583,24 @@
       <c r="P179" t="n">
         <v>603412736087.2266</v>
       </c>
+      <c r="Q179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R179" t="n">
+        <v>3</v>
+      </c>
+      <c r="S179" t="n">
+        <v>1</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9441,6 +12651,24 @@
       <c r="P180" t="n">
         <v>539064663252.6279</v>
       </c>
+      <c r="Q180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9491,6 +12719,24 @@
       <c r="P181" t="n">
         <v>658469496055.9026</v>
       </c>
+      <c r="Q181" t="n">
+        <v>2</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3</v>
+      </c>
+      <c r="S181" t="n">
+        <v>1</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9541,6 +12787,24 @@
       <c r="P182" t="n">
         <v>922190298818.2277</v>
       </c>
+      <c r="Q182" t="n">
+        <v>2</v>
+      </c>
+      <c r="R182" t="n">
+        <v>3</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1</v>
+      </c>
+      <c r="U182" t="n">
+        <v>0</v>
+      </c>
+      <c r="V182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9591,6 +12855,24 @@
       <c r="P183" t="n">
         <v>1045591491650.329</v>
       </c>
+      <c r="Q183" t="n">
+        <v>2</v>
+      </c>
+      <c r="R183" t="n">
+        <v>3</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>0</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9641,6 +12923,24 @@
       <c r="P184" t="n">
         <v>1086353240186.976</v>
       </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>3</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9691,6 +12991,24 @@
       <c r="P185" t="n">
         <v>1280331099900.962</v>
       </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="n">
+        <v>3</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1</v>
+      </c>
+      <c r="U185" t="n">
+        <v>0</v>
+      </c>
+      <c r="V185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9741,6 +13059,24 @@
       <c r="P186" t="n">
         <v>1109972417044.897</v>
       </c>
+      <c r="Q186" t="n">
+        <v>2</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9791,6 +13127,24 @@
       <c r="P187" t="n">
         <v>825387873521.1284</v>
       </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>3</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9841,6 +13195,24 @@
       <c r="P188" t="n">
         <v>674729109625.7429</v>
       </c>
+      <c r="Q188" t="n">
+        <v>2</v>
+      </c>
+      <c r="R188" t="n">
+        <v>3</v>
+      </c>
+      <c r="S188" t="n">
+        <v>1</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>0</v>
+      </c>
+      <c r="V188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9891,6 +13263,24 @@
       <c r="P189" t="n">
         <v>603734362164.0027</v>
       </c>
+      <c r="Q189" t="n">
+        <v>2</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1</v>
+      </c>
+      <c r="U189" t="n">
+        <v>0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9941,6 +13331,24 @@
       <c r="P190" t="n">
         <v>357904937932.1729</v>
       </c>
+      <c r="Q190" t="n">
+        <v>2</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>1</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1</v>
+      </c>
+      <c r="U190" t="n">
+        <v>0</v>
+      </c>
+      <c r="V190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9991,6 +13399,24 @@
       <c r="P191" t="n">
         <v>332646543339.9916</v>
       </c>
+      <c r="Q191" t="n">
+        <v>2</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>1</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>0</v>
+      </c>
+      <c r="V191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10041,6 +13467,24 @@
       <c r="P192" t="n">
         <v>318135333542.3019</v>
       </c>
+      <c r="Q192" t="n">
+        <v>1</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>2</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>0</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10091,6 +13535,24 @@
       <c r="P193" t="n">
         <v>246308441350.1839</v>
       </c>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" t="n">
+        <v>3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>2</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1</v>
+      </c>
+      <c r="U193" t="n">
+        <v>0</v>
+      </c>
+      <c r="V193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10141,6 +13603,24 @@
       <c r="P194" t="n">
         <v>220802480564.4148</v>
       </c>
+      <c r="Q194" t="n">
+        <v>1</v>
+      </c>
+      <c r="R194" t="n">
+        <v>3</v>
+      </c>
+      <c r="S194" t="n">
+        <v>2</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10191,6 +13671,24 @@
       <c r="P195" t="n">
         <v>346735694198.9388</v>
       </c>
+      <c r="Q195" t="n">
+        <v>1</v>
+      </c>
+      <c r="R195" t="n">
+        <v>3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1</v>
+      </c>
+      <c r="U195" t="n">
+        <v>0</v>
+      </c>
+      <c r="V195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10241,6 +13739,24 @@
       <c r="P196" t="n">
         <v>422935720056.7567</v>
       </c>
+      <c r="Q196" t="n">
+        <v>1</v>
+      </c>
+      <c r="R196" t="n">
+        <v>3</v>
+      </c>
+      <c r="S196" t="n">
+        <v>2</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0</v>
+      </c>
+      <c r="V196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10291,6 +13807,24 @@
       <c r="P197" t="n">
         <v>505778987283.1021</v>
       </c>
+      <c r="Q197" t="n">
+        <v>2</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>1</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10341,6 +13875,24 @@
       <c r="P198" t="n">
         <v>560795776843.314</v>
       </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>1</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10391,6 +13943,24 @@
       <c r="P199" t="n">
         <v>635503908883.7563</v>
       </c>
+      <c r="Q199" t="n">
+        <v>2</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>1</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0</v>
+      </c>
+      <c r="V199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10441,6 +14011,24 @@
       <c r="P200" t="n">
         <v>516938091802.0328</v>
       </c>
+      <c r="Q200" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>1</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10491,6 +14079,24 @@
       <c r="P201" t="n">
         <v>448194635400.6268</v>
       </c>
+      <c r="Q201" t="n">
+        <v>2</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1</v>
+      </c>
+      <c r="U201" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10541,6 +14147,24 @@
       <c r="P202" t="n">
         <v>355186984930.8615</v>
       </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>2</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1</v>
+      </c>
+      <c r="U202" t="n">
+        <v>0</v>
+      </c>
+      <c r="V202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10591,6 +14215,24 @@
       <c r="P203" t="n">
         <v>316579434608.5275</v>
       </c>
+      <c r="Q203" t="n">
+        <v>1</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>3</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10641,6 +14283,24 @@
       <c r="P204" t="n">
         <v>303872324470.2258</v>
       </c>
+      <c r="Q204" t="n">
+        <v>3</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>1</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1</v>
+      </c>
+      <c r="V204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10691,6 +14351,24 @@
       <c r="P205" t="n">
         <v>319246006891.0934</v>
       </c>
+      <c r="Q205" t="n">
+        <v>2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>1</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1</v>
+      </c>
+      <c r="U205" t="n">
+        <v>0</v>
+      </c>
+      <c r="V205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10741,6 +14419,24 @@
       <c r="P206" t="n">
         <v>396267993010.8444</v>
       </c>
+      <c r="Q206" t="n">
+        <v>2</v>
+      </c>
+      <c r="R206" t="n">
+        <v>3</v>
+      </c>
+      <c r="S206" t="n">
+        <v>1</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1</v>
+      </c>
+      <c r="U206" t="n">
+        <v>0</v>
+      </c>
+      <c r="V206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10791,6 +14487,24 @@
       <c r="P207" t="n">
         <v>421622958272.0441</v>
       </c>
+      <c r="Q207" t="n">
+        <v>2</v>
+      </c>
+      <c r="R207" t="n">
+        <v>3</v>
+      </c>
+      <c r="S207" t="n">
+        <v>1</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1</v>
+      </c>
+      <c r="U207" t="n">
+        <v>0</v>
+      </c>
+      <c r="V207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10841,6 +14555,24 @@
       <c r="P208" t="n">
         <v>462178723663.3899</v>
       </c>
+      <c r="Q208" t="n">
+        <v>2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>3</v>
+      </c>
+      <c r="S208" t="n">
+        <v>1</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1</v>
+      </c>
+      <c r="U208" t="n">
+        <v>0</v>
+      </c>
+      <c r="V208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10891,6 +14623,24 @@
       <c r="P209" t="n">
         <v>443989652626.3152</v>
       </c>
+      <c r="Q209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R209" t="n">
+        <v>3</v>
+      </c>
+      <c r="S209" t="n">
+        <v>1</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1</v>
+      </c>
+      <c r="U209" t="n">
+        <v>0</v>
+      </c>
+      <c r="V209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10941,6 +14691,24 @@
       <c r="P210" t="n">
         <v>480130063144.5631</v>
       </c>
+      <c r="Q210" t="n">
+        <v>2</v>
+      </c>
+      <c r="R210" t="n">
+        <v>3</v>
+      </c>
+      <c r="S210" t="n">
+        <v>1</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1</v>
+      </c>
+      <c r="U210" t="n">
+        <v>0</v>
+      </c>
+      <c r="V210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10991,6 +14759,24 @@
       <c r="P211" t="n">
         <v>462083129281.1016</v>
       </c>
+      <c r="Q211" t="n">
+        <v>1</v>
+      </c>
+      <c r="R211" t="n">
+        <v>3</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1</v>
+      </c>
+      <c r="U211" t="n">
+        <v>0</v>
+      </c>
+      <c r="V211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11041,6 +14827,24 @@
       <c r="P212" t="n">
         <v>466025288835.3348</v>
       </c>
+      <c r="Q212" t="n">
+        <v>1</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1</v>
+      </c>
+      <c r="U212" t="n">
+        <v>0</v>
+      </c>
+      <c r="V212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11091,6 +14895,24 @@
       <c r="P213" t="n">
         <v>437188228723.3456</v>
       </c>
+      <c r="Q213" t="n">
+        <v>1</v>
+      </c>
+      <c r="R213" t="n">
+        <v>3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1</v>
+      </c>
+      <c r="U213" t="n">
+        <v>0</v>
+      </c>
+      <c r="V213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11141,6 +14963,24 @@
       <c r="P214" t="n">
         <v>496088570885.4614</v>
       </c>
+      <c r="Q214" t="n">
+        <v>1</v>
+      </c>
+      <c r="R214" t="n">
+        <v>3</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1</v>
+      </c>
+      <c r="U214" t="n">
+        <v>0</v>
+      </c>
+      <c r="V214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11191,6 +15031,24 @@
       <c r="P215" t="n">
         <v>532769831866.9599</v>
       </c>
+      <c r="Q215" t="n">
+        <v>1</v>
+      </c>
+      <c r="R215" t="n">
+        <v>3</v>
+      </c>
+      <c r="S215" t="n">
+        <v>2</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1</v>
+      </c>
+      <c r="U215" t="n">
+        <v>0</v>
+      </c>
+      <c r="V215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11241,6 +15099,24 @@
       <c r="P216" t="n">
         <v>487365565470.7404</v>
       </c>
+      <c r="Q216" t="n">
+        <v>1</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3</v>
+      </c>
+      <c r="S216" t="n">
+        <v>2</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1</v>
+      </c>
+      <c r="U216" t="n">
+        <v>0</v>
+      </c>
+      <c r="V216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11291,6 +15167,24 @@
       <c r="P217" t="n">
         <v>514223747369.5951</v>
       </c>
+      <c r="Q217" t="n">
+        <v>2</v>
+      </c>
+      <c r="R217" t="n">
+        <v>3</v>
+      </c>
+      <c r="S217" t="n">
+        <v>1</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1</v>
+      </c>
+      <c r="U217" t="n">
+        <v>0</v>
+      </c>
+      <c r="V217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11341,6 +15235,24 @@
       <c r="P218" t="n">
         <v>530783300956.9983</v>
       </c>
+      <c r="Q218" t="n">
+        <v>2</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>1</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1</v>
+      </c>
+      <c r="U218" t="n">
+        <v>0</v>
+      </c>
+      <c r="V218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -11391,6 +15303,24 @@
       <c r="P219" t="n">
         <v>445341427180.4034</v>
       </c>
+      <c r="Q219" t="n">
+        <v>1</v>
+      </c>
+      <c r="R219" t="n">
+        <v>3</v>
+      </c>
+      <c r="S219" t="n">
+        <v>2</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1</v>
+      </c>
+      <c r="U219" t="n">
+        <v>0</v>
+      </c>
+      <c r="V219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11441,6 +15371,24 @@
       <c r="P220" t="n">
         <v>495820812407.5475</v>
       </c>
+      <c r="Q220" t="n">
+        <v>1</v>
+      </c>
+      <c r="R220" t="n">
+        <v>3</v>
+      </c>
+      <c r="S220" t="n">
+        <v>2</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1</v>
+      </c>
+      <c r="U220" t="n">
+        <v>0</v>
+      </c>
+      <c r="V220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11491,6 +15439,24 @@
       <c r="P221" t="n">
         <v>509317730981.5113</v>
       </c>
+      <c r="Q221" t="n">
+        <v>1</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>2</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1</v>
+      </c>
+      <c r="U221" t="n">
+        <v>0</v>
+      </c>
+      <c r="V221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11541,6 +15507,24 @@
       <c r="P222" t="n">
         <v>465684457530.7869</v>
       </c>
+      <c r="Q222" t="n">
+        <v>1</v>
+      </c>
+      <c r="R222" t="n">
+        <v>3</v>
+      </c>
+      <c r="S222" t="n">
+        <v>2</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1</v>
+      </c>
+      <c r="U222" t="n">
+        <v>0</v>
+      </c>
+      <c r="V222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11591,6 +15575,24 @@
       <c r="P223" t="n">
         <v>449447949857.5732</v>
       </c>
+      <c r="Q223" t="n">
+        <v>1</v>
+      </c>
+      <c r="R223" t="n">
+        <v>3</v>
+      </c>
+      <c r="S223" t="n">
+        <v>2</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1</v>
+      </c>
+      <c r="U223" t="n">
+        <v>0</v>
+      </c>
+      <c r="V223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11641,6 +15643,24 @@
       <c r="P224" t="n">
         <v>430178452653.9494</v>
       </c>
+      <c r="Q224" t="n">
+        <v>1</v>
+      </c>
+      <c r="R224" t="n">
+        <v>3</v>
+      </c>
+      <c r="S224" t="n">
+        <v>2</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1</v>
+      </c>
+      <c r="U224" t="n">
+        <v>0</v>
+      </c>
+      <c r="V224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11691,6 +15711,24 @@
       <c r="P225" t="n">
         <v>329832118628.4518</v>
       </c>
+      <c r="Q225" t="n">
+        <v>1</v>
+      </c>
+      <c r="R225" t="n">
+        <v>3</v>
+      </c>
+      <c r="S225" t="n">
+        <v>2</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1</v>
+      </c>
+      <c r="U225" t="n">
+        <v>0</v>
+      </c>
+      <c r="V225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11741,6 +15779,24 @@
       <c r="P226" t="n">
         <v>336703017952.5397</v>
       </c>
+      <c r="Q226" t="n">
+        <v>1</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11791,6 +15847,24 @@
       <c r="P227" t="n">
         <v>354029395060.5517</v>
       </c>
+      <c r="Q227" t="n">
+        <v>1</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11841,6 +15915,24 @@
       <c r="P228" t="n">
         <v>322023504430.4913</v>
       </c>
+      <c r="Q228" t="n">
+        <v>1</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2</v>
+      </c>
+      <c r="S228" t="n">
+        <v>3</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1</v>
+      </c>
+      <c r="U228" t="n">
+        <v>1</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11891,6 +15983,24 @@
       <c r="P229" t="n">
         <v>317842344080.7742</v>
       </c>
+      <c r="Q229" t="n">
+        <v>1</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>3</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11941,6 +16051,24 @@
       <c r="P230" t="n">
         <v>273443690690.9913</v>
       </c>
+      <c r="Q230" t="n">
+        <v>1</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1</v>
+      </c>
+      <c r="V230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11991,6 +16119,24 @@
       <c r="P231" t="n">
         <v>244610766451.1585</v>
       </c>
+      <c r="Q231" t="n">
+        <v>1</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1</v>
+      </c>
+      <c r="V231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12041,6 +16187,24 @@
       <c r="P232" t="n">
         <v>344145568739.9611</v>
       </c>
+      <c r="Q232" t="n">
+        <v>1</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>2</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1</v>
+      </c>
+      <c r="U232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12091,6 +16255,24 @@
       <c r="P233" t="n">
         <v>425526956467.0715</v>
       </c>
+      <c r="Q233" t="n">
+        <v>1</v>
+      </c>
+      <c r="R233" t="n">
+        <v>3</v>
+      </c>
+      <c r="S233" t="n">
+        <v>2</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1</v>
+      </c>
+      <c r="U233" t="n">
+        <v>0</v>
+      </c>
+      <c r="V233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12141,6 +16323,24 @@
       <c r="P234" t="n">
         <v>445635768257.8816</v>
       </c>
+      <c r="Q234" t="n">
+        <v>1</v>
+      </c>
+      <c r="R234" t="n">
+        <v>3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>2</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1</v>
+      </c>
+      <c r="U234" t="n">
+        <v>0</v>
+      </c>
+      <c r="V234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12191,6 +16391,24 @@
       <c r="P235" t="n">
         <v>473912879895.9059</v>
       </c>
+      <c r="Q235" t="n">
+        <v>1</v>
+      </c>
+      <c r="R235" t="n">
+        <v>3</v>
+      </c>
+      <c r="S235" t="n">
+        <v>2</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1</v>
+      </c>
+      <c r="U235" t="n">
+        <v>0</v>
+      </c>
+      <c r="V235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12241,6 +16459,24 @@
       <c r="P236" t="n">
         <v>510909553671.759</v>
       </c>
+      <c r="Q236" t="n">
+        <v>1</v>
+      </c>
+      <c r="R236" t="n">
+        <v>3</v>
+      </c>
+      <c r="S236" t="n">
+        <v>2</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1</v>
+      </c>
+      <c r="U236" t="n">
+        <v>0</v>
+      </c>
+      <c r="V236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -12291,6 +16527,24 @@
       <c r="P237" t="n">
         <v>400417933683.4141</v>
       </c>
+      <c r="Q237" t="n">
+        <v>1</v>
+      </c>
+      <c r="R237" t="n">
+        <v>3</v>
+      </c>
+      <c r="S237" t="n">
+        <v>2</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1</v>
+      </c>
+      <c r="U237" t="n">
+        <v>0</v>
+      </c>
+      <c r="V237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -12341,6 +16595,24 @@
       <c r="P238" t="n">
         <v>360121560896.3445</v>
       </c>
+      <c r="Q238" t="n">
+        <v>1</v>
+      </c>
+      <c r="R238" t="n">
+        <v>3</v>
+      </c>
+      <c r="S238" t="n">
+        <v>2</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1</v>
+      </c>
+      <c r="U238" t="n">
+        <v>0</v>
+      </c>
+      <c r="V238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -12391,6 +16663,24 @@
       <c r="P239" t="n">
         <v>481148910960.0534</v>
       </c>
+      <c r="Q239" t="n">
+        <v>1</v>
+      </c>
+      <c r="R239" t="n">
+        <v>3</v>
+      </c>
+      <c r="S239" t="n">
+        <v>2</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1</v>
+      </c>
+      <c r="U239" t="n">
+        <v>0</v>
+      </c>
+      <c r="V239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -12441,6 +16731,24 @@
       <c r="P240" t="n">
         <v>522380210419.1304</v>
       </c>
+      <c r="Q240" t="n">
+        <v>2</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>1</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1</v>
+      </c>
+      <c r="U240" t="n">
+        <v>0</v>
+      </c>
+      <c r="V240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12491,6 +16799,24 @@
       <c r="P241" t="n">
         <v>477855697847.4341</v>
       </c>
+      <c r="Q241" t="n">
+        <v>1</v>
+      </c>
+      <c r="R241" t="n">
+        <v>3</v>
+      </c>
+      <c r="S241" t="n">
+        <v>2</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1</v>
+      </c>
+      <c r="U241" t="n">
+        <v>0</v>
+      </c>
+      <c r="V241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12541,6 +16867,24 @@
       <c r="P242" t="n">
         <v>465005376174.6306</v>
       </c>
+      <c r="Q242" t="n">
+        <v>2</v>
+      </c>
+      <c r="R242" t="n">
+        <v>3</v>
+      </c>
+      <c r="S242" t="n">
+        <v>1</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1</v>
+      </c>
+      <c r="U242" t="n">
+        <v>0</v>
+      </c>
+      <c r="V242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12591,6 +16935,24 @@
       <c r="P243" t="n">
         <v>467739723079.7553</v>
       </c>
+      <c r="Q243" t="n">
+        <v>2</v>
+      </c>
+      <c r="R243" t="n">
+        <v>3</v>
+      </c>
+      <c r="S243" t="n">
+        <v>1</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1</v>
+      </c>
+      <c r="U243" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12641,6 +17003,24 @@
       <c r="P244" t="n">
         <v>425006059233.177</v>
       </c>
+      <c r="Q244" t="n">
+        <v>1</v>
+      </c>
+      <c r="R244" t="n">
+        <v>3</v>
+      </c>
+      <c r="S244" t="n">
+        <v>2</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1</v>
+      </c>
+      <c r="U244" t="n">
+        <v>0</v>
+      </c>
+      <c r="V244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12691,6 +17071,24 @@
       <c r="P245" t="n">
         <v>426732605207.8988</v>
       </c>
+      <c r="Q245" t="n">
+        <v>1</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>2</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1</v>
+      </c>
+      <c r="U245" t="n">
+        <v>0</v>
+      </c>
+      <c r="V245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12741,6 +17139,24 @@
       <c r="P246" t="n">
         <v>577137004809.4045</v>
       </c>
+      <c r="Q246" t="n">
+        <v>1</v>
+      </c>
+      <c r="R246" t="n">
+        <v>3</v>
+      </c>
+      <c r="S246" t="n">
+        <v>2</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1</v>
+      </c>
+      <c r="U246" t="n">
+        <v>0</v>
+      </c>
+      <c r="V246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12791,6 +17207,24 @@
       <c r="P247" t="n">
         <v>639421777358.9396</v>
       </c>
+      <c r="Q247" t="n">
+        <v>1</v>
+      </c>
+      <c r="R247" t="n">
+        <v>3</v>
+      </c>
+      <c r="S247" t="n">
+        <v>2</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1</v>
+      </c>
+      <c r="U247" t="n">
+        <v>0</v>
+      </c>
+      <c r="V247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12841,6 +17275,24 @@
       <c r="P248" t="n">
         <v>651751101206.7802</v>
       </c>
+      <c r="Q248" t="n">
+        <v>1</v>
+      </c>
+      <c r="R248" t="n">
+        <v>3</v>
+      </c>
+      <c r="S248" t="n">
+        <v>2</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1</v>
+      </c>
+      <c r="U248" t="n">
+        <v>0</v>
+      </c>
+      <c r="V248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12891,6 +17343,24 @@
       <c r="P249" t="n">
         <v>543099011805.5715</v>
       </c>
+      <c r="Q249" t="n">
+        <v>1</v>
+      </c>
+      <c r="R249" t="n">
+        <v>3</v>
+      </c>
+      <c r="S249" t="n">
+        <v>2</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1</v>
+      </c>
+      <c r="U249" t="n">
+        <v>0</v>
+      </c>
+      <c r="V249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12941,6 +17411,24 @@
       <c r="P250" t="n">
         <v>467068476975.9119</v>
       </c>
+      <c r="Q250" t="n">
+        <v>1</v>
+      </c>
+      <c r="R250" t="n">
+        <v>3</v>
+      </c>
+      <c r="S250" t="n">
+        <v>2</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1</v>
+      </c>
+      <c r="U250" t="n">
+        <v>0</v>
+      </c>
+      <c r="V250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12991,6 +17479,24 @@
       <c r="P251" t="n">
         <v>318780054473.5443</v>
       </c>
+      <c r="Q251" t="n">
+        <v>1</v>
+      </c>
+      <c r="R251" t="n">
+        <v>3</v>
+      </c>
+      <c r="S251" t="n">
+        <v>2</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13041,6 +17547,24 @@
       <c r="P252" t="n">
         <v>346550241486.1202</v>
       </c>
+      <c r="Q252" t="n">
+        <v>1</v>
+      </c>
+      <c r="R252" t="n">
+        <v>3</v>
+      </c>
+      <c r="S252" t="n">
+        <v>2</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13091,6 +17615,24 @@
       <c r="P253" t="n">
         <v>354533647397.1619</v>
       </c>
+      <c r="Q253" t="n">
+        <v>1</v>
+      </c>
+      <c r="R253" t="n">
+        <v>3</v>
+      </c>
+      <c r="S253" t="n">
+        <v>2</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13141,6 +17683,24 @@
       <c r="P254" t="n">
         <v>476662759363.0087</v>
       </c>
+      <c r="Q254" t="n">
+        <v>1</v>
+      </c>
+      <c r="R254" t="n">
+        <v>3</v>
+      </c>
+      <c r="S254" t="n">
+        <v>2</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13191,6 +17751,24 @@
       <c r="P255" t="n">
         <v>509636145506.8937</v>
       </c>
+      <c r="Q255" t="n">
+        <v>1</v>
+      </c>
+      <c r="R255" t="n">
+        <v>3</v>
+      </c>
+      <c r="S255" t="n">
+        <v>2</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0</v>
+      </c>
+      <c r="V255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -13241,6 +17819,24 @@
       <c r="P256" t="n">
         <v>490304887989.3939</v>
       </c>
+      <c r="Q256" t="n">
+        <v>1</v>
+      </c>
+      <c r="R256" t="n">
+        <v>3</v>
+      </c>
+      <c r="S256" t="n">
+        <v>2</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0</v>
+      </c>
+      <c r="V256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -13291,6 +17887,24 @@
       <c r="P257" t="n">
         <v>404351089864.603</v>
       </c>
+      <c r="Q257" t="n">
+        <v>1</v>
+      </c>
+      <c r="R257" t="n">
+        <v>3</v>
+      </c>
+      <c r="S257" t="n">
+        <v>2</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0</v>
+      </c>
+      <c r="V257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -13341,6 +17955,24 @@
       <c r="P258" t="n">
         <v>369829802704.8627</v>
       </c>
+      <c r="Q258" t="n">
+        <v>1</v>
+      </c>
+      <c r="R258" t="n">
+        <v>3</v>
+      </c>
+      <c r="S258" t="n">
+        <v>2</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0</v>
+      </c>
+      <c r="V258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -13391,6 +18023,24 @@
       <c r="P259" t="n">
         <v>268766056210.7768</v>
       </c>
+      <c r="Q259" t="n">
+        <v>1</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3</v>
+      </c>
+      <c r="S259" t="n">
+        <v>2</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0</v>
+      </c>
+      <c r="V259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -13441,6 +18091,24 @@
       <c r="P260" t="n">
         <v>270817993586.4133</v>
       </c>
+      <c r="Q260" t="n">
+        <v>1</v>
+      </c>
+      <c r="R260" t="n">
+        <v>3</v>
+      </c>
+      <c r="S260" t="n">
+        <v>2</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -13491,6 +18159,24 @@
       <c r="P261" t="n">
         <v>317601205793.655</v>
       </c>
+      <c r="Q261" t="n">
+        <v>1</v>
+      </c>
+      <c r="R261" t="n">
+        <v>3</v>
+      </c>
+      <c r="S261" t="n">
+        <v>2</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1</v>
+      </c>
+      <c r="U261" t="n">
+        <v>0</v>
+      </c>
+      <c r="V261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13541,6 +18227,24 @@
       <c r="P262" t="n">
         <v>401269690547.9116</v>
       </c>
+      <c r="Q262" t="n">
+        <v>1</v>
+      </c>
+      <c r="R262" t="n">
+        <v>3</v>
+      </c>
+      <c r="S262" t="n">
+        <v>2</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1</v>
+      </c>
+      <c r="U262" t="n">
+        <v>0</v>
+      </c>
+      <c r="V262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13591,6 +18295,24 @@
       <c r="P263" t="n">
         <v>380961614073.9322</v>
       </c>
+      <c r="Q263" t="n">
+        <v>1</v>
+      </c>
+      <c r="R263" t="n">
+        <v>3</v>
+      </c>
+      <c r="S263" t="n">
+        <v>2</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1</v>
+      </c>
+      <c r="U263" t="n">
+        <v>0</v>
+      </c>
+      <c r="V263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13641,6 +18363,24 @@
       <c r="P264" t="n">
         <v>379147438843.1144</v>
       </c>
+      <c r="Q264" t="n">
+        <v>1</v>
+      </c>
+      <c r="R264" t="n">
+        <v>3</v>
+      </c>
+      <c r="S264" t="n">
+        <v>2</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1</v>
+      </c>
+      <c r="U264" t="n">
+        <v>0</v>
+      </c>
+      <c r="V264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13691,6 +18431,24 @@
       <c r="P265" t="n">
         <v>360942636399.2865</v>
       </c>
+      <c r="Q265" t="n">
+        <v>1</v>
+      </c>
+      <c r="R265" t="n">
+        <v>3</v>
+      </c>
+      <c r="S265" t="n">
+        <v>2</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1</v>
+      </c>
+      <c r="U265" t="n">
+        <v>0</v>
+      </c>
+      <c r="V265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13741,6 +18499,24 @@
       <c r="P266" t="n">
         <v>336046725651.4487</v>
       </c>
+      <c r="Q266" t="n">
+        <v>1</v>
+      </c>
+      <c r="R266" t="n">
+        <v>2</v>
+      </c>
+      <c r="S266" t="n">
+        <v>3</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1</v>
+      </c>
+      <c r="U266" t="n">
+        <v>1</v>
+      </c>
+      <c r="V266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13791,6 +18567,24 @@
       <c r="P267" t="n">
         <v>256939365671.7622</v>
       </c>
+      <c r="Q267" t="n">
+        <v>1</v>
+      </c>
+      <c r="R267" t="n">
+        <v>2</v>
+      </c>
+      <c r="S267" t="n">
+        <v>3</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1</v>
+      </c>
+      <c r="U267" t="n">
+        <v>1</v>
+      </c>
+      <c r="V267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13841,6 +18635,24 @@
       <c r="P268" t="n">
         <v>260147143411.0729</v>
       </c>
+      <c r="Q268" t="n">
+        <v>1</v>
+      </c>
+      <c r="R268" t="n">
+        <v>2</v>
+      </c>
+      <c r="S268" t="n">
+        <v>3</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1</v>
+      </c>
+      <c r="U268" t="n">
+        <v>1</v>
+      </c>
+      <c r="V268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13891,6 +18703,24 @@
       <c r="P269" t="n">
         <v>261732844401.335</v>
       </c>
+      <c r="Q269" t="n">
+        <v>1</v>
+      </c>
+      <c r="R269" t="n">
+        <v>2</v>
+      </c>
+      <c r="S269" t="n">
+        <v>3</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1</v>
+      </c>
+      <c r="U269" t="n">
+        <v>1</v>
+      </c>
+      <c r="V269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13941,6 +18771,24 @@
       <c r="P270" t="n">
         <v>471256974850.577</v>
       </c>
+      <c r="Q270" t="n">
+        <v>1</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2</v>
+      </c>
+      <c r="S270" t="n">
+        <v>3</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1</v>
+      </c>
+      <c r="U270" t="n">
+        <v>1</v>
+      </c>
+      <c r="V270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13991,6 +18839,24 @@
       <c r="P271" t="n">
         <v>498616379503.0323</v>
       </c>
+      <c r="Q271" t="n">
+        <v>1</v>
+      </c>
+      <c r="R271" t="n">
+        <v>2</v>
+      </c>
+      <c r="S271" t="n">
+        <v>3</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1</v>
+      </c>
+      <c r="U271" t="n">
+        <v>1</v>
+      </c>
+      <c r="V271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14041,6 +18907,24 @@
       <c r="P272" t="n">
         <v>558572853168.3997</v>
       </c>
+      <c r="Q272" t="n">
+        <v>1</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2</v>
+      </c>
+      <c r="S272" t="n">
+        <v>3</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1</v>
+      </c>
+      <c r="U272" t="n">
+        <v>1</v>
+      </c>
+      <c r="V272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14091,6 +18975,24 @@
       <c r="P273" t="n">
         <v>562475203223.3185</v>
       </c>
+      <c r="Q273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2</v>
+      </c>
+      <c r="S273" t="n">
+        <v>3</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1</v>
+      </c>
+      <c r="U273" t="n">
+        <v>1</v>
+      </c>
+      <c r="V273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14141,6 +19043,24 @@
       <c r="P274" t="n">
         <v>576326197777.1514</v>
       </c>
+      <c r="Q274" t="n">
+        <v>1</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2</v>
+      </c>
+      <c r="S274" t="n">
+        <v>3</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1</v>
+      </c>
+      <c r="U274" t="n">
+        <v>1</v>
+      </c>
+      <c r="V274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -14191,6 +19111,24 @@
       <c r="P275" t="n">
         <v>486856479465.44</v>
       </c>
+      <c r="Q275" t="n">
+        <v>1</v>
+      </c>
+      <c r="R275" t="n">
+        <v>3</v>
+      </c>
+      <c r="S275" t="n">
+        <v>2</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1</v>
+      </c>
+      <c r="U275" t="n">
+        <v>0</v>
+      </c>
+      <c r="V275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -14241,6 +19179,24 @@
       <c r="P276" t="n">
         <v>468019451687.6138</v>
       </c>
+      <c r="Q276" t="n">
+        <v>1</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>2</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1</v>
+      </c>
+      <c r="U276" t="n">
+        <v>0</v>
+      </c>
+      <c r="V276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -14291,6 +19247,24 @@
       <c r="P277" t="n">
         <v>397851501035.4446</v>
       </c>
+      <c r="Q277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R277" t="n">
+        <v>3</v>
+      </c>
+      <c r="S277" t="n">
+        <v>2</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1</v>
+      </c>
+      <c r="U277" t="n">
+        <v>0</v>
+      </c>
+      <c r="V277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -14341,6 +19315,24 @@
       <c r="P278" t="n">
         <v>372618959567.8823</v>
       </c>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>1</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1</v>
+      </c>
+      <c r="U278" t="n">
+        <v>0</v>
+      </c>
+      <c r="V278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -14391,6 +19383,24 @@
       <c r="P279" t="n">
         <v>355802536883.6516</v>
       </c>
+      <c r="Q279" t="n">
+        <v>2</v>
+      </c>
+      <c r="R279" t="n">
+        <v>3</v>
+      </c>
+      <c r="S279" t="n">
+        <v>1</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1</v>
+      </c>
+      <c r="U279" t="n">
+        <v>0</v>
+      </c>
+      <c r="V279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -14441,6 +19451,24 @@
       <c r="P280" t="n">
         <v>289645370067.1147</v>
       </c>
+      <c r="Q280" t="n">
+        <v>1</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2</v>
+      </c>
+      <c r="S280" t="n">
+        <v>3</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1</v>
+      </c>
+      <c r="U280" t="n">
+        <v>1</v>
+      </c>
+      <c r="V280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -14491,6 +19519,24 @@
       <c r="P281" t="n">
         <v>287532001623.0068</v>
       </c>
+      <c r="Q281" t="n">
+        <v>1</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2</v>
+      </c>
+      <c r="S281" t="n">
+        <v>3</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1</v>
+      </c>
+      <c r="U281" t="n">
+        <v>1</v>
+      </c>
+      <c r="V281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -14541,6 +19587,24 @@
       <c r="P282" t="n">
         <v>289742196183.5994</v>
       </c>
+      <c r="Q282" t="n">
+        <v>1</v>
+      </c>
+      <c r="R282" t="n">
+        <v>2</v>
+      </c>
+      <c r="S282" t="n">
+        <v>3</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1</v>
+      </c>
+      <c r="U282" t="n">
+        <v>1</v>
+      </c>
+      <c r="V282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14591,6 +19655,24 @@
       <c r="P283" t="n">
         <v>305328600592.6379</v>
       </c>
+      <c r="Q283" t="n">
+        <v>1</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2</v>
+      </c>
+      <c r="S283" t="n">
+        <v>3</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1</v>
+      </c>
+      <c r="U283" t="n">
+        <v>1</v>
+      </c>
+      <c r="V283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14641,6 +19723,24 @@
       <c r="P284" t="n">
         <v>268474061947.8408</v>
       </c>
+      <c r="Q284" t="n">
+        <v>1</v>
+      </c>
+      <c r="R284" t="n">
+        <v>2</v>
+      </c>
+      <c r="S284" t="n">
+        <v>3</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1</v>
+      </c>
+      <c r="V284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14691,6 +19791,24 @@
       <c r="P285" t="n">
         <v>218390528112.029</v>
       </c>
+      <c r="Q285" t="n">
+        <v>1</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2</v>
+      </c>
+      <c r="S285" t="n">
+        <v>3</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1</v>
+      </c>
+      <c r="U285" t="n">
+        <v>1</v>
+      </c>
+      <c r="V285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14741,6 +19859,24 @@
       <c r="P286" t="n">
         <v>271936487579.8039</v>
       </c>
+      <c r="Q286" t="n">
+        <v>1</v>
+      </c>
+      <c r="R286" t="n">
+        <v>3</v>
+      </c>
+      <c r="S286" t="n">
+        <v>2</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1</v>
+      </c>
+      <c r="U286" t="n">
+        <v>0</v>
+      </c>
+      <c r="V286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14791,6 +19927,24 @@
       <c r="P287" t="n">
         <v>318483773031.1596</v>
       </c>
+      <c r="Q287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R287" t="n">
+        <v>3</v>
+      </c>
+      <c r="S287" t="n">
+        <v>2</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1</v>
+      </c>
+      <c r="U287" t="n">
+        <v>0</v>
+      </c>
+      <c r="V287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14841,6 +19995,24 @@
       <c r="P288" t="n">
         <v>339043435739.7352</v>
       </c>
+      <c r="Q288" t="n">
+        <v>1</v>
+      </c>
+      <c r="R288" t="n">
+        <v>3</v>
+      </c>
+      <c r="S288" t="n">
+        <v>2</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1</v>
+      </c>
+      <c r="U288" t="n">
+        <v>0</v>
+      </c>
+      <c r="V288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14891,6 +20063,24 @@
       <c r="P289" t="n">
         <v>400647831970.9725</v>
       </c>
+      <c r="Q289" t="n">
+        <v>2</v>
+      </c>
+      <c r="R289" t="n">
+        <v>3</v>
+      </c>
+      <c r="S289" t="n">
+        <v>1</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1</v>
+      </c>
+      <c r="U289" t="n">
+        <v>0</v>
+      </c>
+      <c r="V289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14941,6 +20131,24 @@
       <c r="P290" t="n">
         <v>468002706822.9625</v>
       </c>
+      <c r="Q290" t="n">
+        <v>2</v>
+      </c>
+      <c r="R290" t="n">
+        <v>3</v>
+      </c>
+      <c r="S290" t="n">
+        <v>1</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1</v>
+      </c>
+      <c r="U290" t="n">
+        <v>0</v>
+      </c>
+      <c r="V290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14991,6 +20199,24 @@
       <c r="P291" t="n">
         <v>370328078586.4666</v>
       </c>
+      <c r="Q291" t="n">
+        <v>2</v>
+      </c>
+      <c r="R291" t="n">
+        <v>3</v>
+      </c>
+      <c r="S291" t="n">
+        <v>1</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1</v>
+      </c>
+      <c r="U291" t="n">
+        <v>0</v>
+      </c>
+      <c r="V291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15041,6 +20267,24 @@
       <c r="P292" t="n">
         <v>307434483296.5018</v>
       </c>
+      <c r="Q292" t="n">
+        <v>1</v>
+      </c>
+      <c r="R292" t="n">
+        <v>3</v>
+      </c>
+      <c r="S292" t="n">
+        <v>2</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1</v>
+      </c>
+      <c r="U292" t="n">
+        <v>0</v>
+      </c>
+      <c r="V292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15091,6 +20335,24 @@
       <c r="P293" t="n">
         <v>279505367956.7217</v>
       </c>
+      <c r="Q293" t="n">
+        <v>1</v>
+      </c>
+      <c r="R293" t="n">
+        <v>3</v>
+      </c>
+      <c r="S293" t="n">
+        <v>2</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1</v>
+      </c>
+      <c r="U293" t="n">
+        <v>0</v>
+      </c>
+      <c r="V293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -15141,6 +20403,24 @@
       <c r="P294" t="n">
         <v>247789298016.7665</v>
       </c>
+      <c r="Q294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R294" t="n">
+        <v>3</v>
+      </c>
+      <c r="S294" t="n">
+        <v>2</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1</v>
+      </c>
+      <c r="U294" t="n">
+        <v>0</v>
+      </c>
+      <c r="V294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -15191,6 +20471,24 @@
       <c r="P295" t="n">
         <v>204538598967.0444</v>
       </c>
+      <c r="Q295" t="n">
+        <v>1</v>
+      </c>
+      <c r="R295" t="n">
+        <v>3</v>
+      </c>
+      <c r="S295" t="n">
+        <v>2</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1</v>
+      </c>
+      <c r="U295" t="n">
+        <v>0</v>
+      </c>
+      <c r="V295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -15241,6 +20539,24 @@
       <c r="P296" t="n">
         <v>207498390602.3256</v>
       </c>
+      <c r="Q296" t="n">
+        <v>1</v>
+      </c>
+      <c r="R296" t="n">
+        <v>3</v>
+      </c>
+      <c r="S296" t="n">
+        <v>2</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1</v>
+      </c>
+      <c r="U296" t="n">
+        <v>0</v>
+      </c>
+      <c r="V296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -15291,6 +20607,24 @@
       <c r="P297" t="n">
         <v>214291692006.1746</v>
       </c>
+      <c r="Q297" t="n">
+        <v>1</v>
+      </c>
+      <c r="R297" t="n">
+        <v>3</v>
+      </c>
+      <c r="S297" t="n">
+        <v>2</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1</v>
+      </c>
+      <c r="U297" t="n">
+        <v>0</v>
+      </c>
+      <c r="V297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -15341,6 +20675,24 @@
       <c r="P298" t="n">
         <v>192291414332.1937</v>
       </c>
+      <c r="Q298" t="n">
+        <v>1</v>
+      </c>
+      <c r="R298" t="n">
+        <v>3</v>
+      </c>
+      <c r="S298" t="n">
+        <v>2</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1</v>
+      </c>
+      <c r="U298" t="n">
+        <v>0</v>
+      </c>
+      <c r="V298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -15391,6 +20743,24 @@
       <c r="P299" t="n">
         <v>169157575591.4806</v>
       </c>
+      <c r="Q299" t="n">
+        <v>1</v>
+      </c>
+      <c r="R299" t="n">
+        <v>3</v>
+      </c>
+      <c r="S299" t="n">
+        <v>2</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1</v>
+      </c>
+      <c r="U299" t="n">
+        <v>0</v>
+      </c>
+      <c r="V299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -15441,6 +20811,24 @@
       <c r="P300" t="n">
         <v>149136045718.8018</v>
       </c>
+      <c r="Q300" t="n">
+        <v>1</v>
+      </c>
+      <c r="R300" t="n">
+        <v>3</v>
+      </c>
+      <c r="S300" t="n">
+        <v>2</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1</v>
+      </c>
+      <c r="U300" t="n">
+        <v>0</v>
+      </c>
+      <c r="V300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -15491,6 +20879,24 @@
       <c r="P301" t="n">
         <v>139447339754.5782</v>
       </c>
+      <c r="Q301" t="n">
+        <v>1</v>
+      </c>
+      <c r="R301" t="n">
+        <v>3</v>
+      </c>
+      <c r="S301" t="n">
+        <v>2</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1</v>
+      </c>
+      <c r="U301" t="n">
+        <v>0</v>
+      </c>
+      <c r="V301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -15541,6 +20947,24 @@
       <c r="P302" t="n">
         <v>164878155701.5073</v>
       </c>
+      <c r="Q302" t="n">
+        <v>1</v>
+      </c>
+      <c r="R302" t="n">
+        <v>3</v>
+      </c>
+      <c r="S302" t="n">
+        <v>2</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1</v>
+      </c>
+      <c r="U302" t="n">
+        <v>0</v>
+      </c>
+      <c r="V302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -15591,6 +21015,24 @@
       <c r="P303" t="n">
         <v>204634243012.0578</v>
       </c>
+      <c r="Q303" t="n">
+        <v>1</v>
+      </c>
+      <c r="R303" t="n">
+        <v>3</v>
+      </c>
+      <c r="S303" t="n">
+        <v>2</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1</v>
+      </c>
+      <c r="U303" t="n">
+        <v>0</v>
+      </c>
+      <c r="V303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15641,6 +21083,24 @@
       <c r="P304" t="n">
         <v>231579225334.7614</v>
       </c>
+      <c r="Q304" t="n">
+        <v>1</v>
+      </c>
+      <c r="R304" t="n">
+        <v>3</v>
+      </c>
+      <c r="S304" t="n">
+        <v>2</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1</v>
+      </c>
+      <c r="U304" t="n">
+        <v>0</v>
+      </c>
+      <c r="V304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15691,6 +21151,24 @@
       <c r="P305" t="n">
         <v>232577329687.3991</v>
       </c>
+      <c r="Q305" t="n">
+        <v>1</v>
+      </c>
+      <c r="R305" t="n">
+        <v>2</v>
+      </c>
+      <c r="S305" t="n">
+        <v>3</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1</v>
+      </c>
+      <c r="U305" t="n">
+        <v>1</v>
+      </c>
+      <c r="V305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15741,6 +21219,24 @@
       <c r="P306" t="n">
         <v>223223101987.8977</v>
       </c>
+      <c r="Q306" t="n">
+        <v>1</v>
+      </c>
+      <c r="R306" t="n">
+        <v>2</v>
+      </c>
+      <c r="S306" t="n">
+        <v>3</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1</v>
+      </c>
+      <c r="U306" t="n">
+        <v>1</v>
+      </c>
+      <c r="V306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15791,6 +21287,24 @@
       <c r="P307" t="n">
         <v>226945166387.6159</v>
       </c>
+      <c r="Q307" t="n">
+        <v>1</v>
+      </c>
+      <c r="R307" t="n">
+        <v>2</v>
+      </c>
+      <c r="S307" t="n">
+        <v>3</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1</v>
+      </c>
+      <c r="U307" t="n">
+        <v>1</v>
+      </c>
+      <c r="V307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15841,6 +21355,24 @@
       <c r="P308" t="n">
         <v>222215107463.8565</v>
       </c>
+      <c r="Q308" t="n">
+        <v>1</v>
+      </c>
+      <c r="R308" t="n">
+        <v>2</v>
+      </c>
+      <c r="S308" t="n">
+        <v>3</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1</v>
+      </c>
+      <c r="U308" t="n">
+        <v>1</v>
+      </c>
+      <c r="V308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15891,6 +21423,24 @@
       <c r="P309" t="n">
         <v>213203039308.834</v>
       </c>
+      <c r="Q309" t="n">
+        <v>1</v>
+      </c>
+      <c r="R309" t="n">
+        <v>3</v>
+      </c>
+      <c r="S309" t="n">
+        <v>2</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1</v>
+      </c>
+      <c r="U309" t="n">
+        <v>0</v>
+      </c>
+      <c r="V309" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15941,6 +21491,24 @@
       <c r="P310" t="n">
         <v>218547665089.4866</v>
       </c>
+      <c r="Q310" t="n">
+        <v>1</v>
+      </c>
+      <c r="R310" t="n">
+        <v>3</v>
+      </c>
+      <c r="S310" t="n">
+        <v>2</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1</v>
+      </c>
+      <c r="U310" t="n">
+        <v>0</v>
+      </c>
+      <c r="V310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15991,6 +21559,24 @@
       <c r="P311" t="n">
         <v>235632597615.6682</v>
       </c>
+      <c r="Q311" t="n">
+        <v>1</v>
+      </c>
+      <c r="R311" t="n">
+        <v>3</v>
+      </c>
+      <c r="S311" t="n">
+        <v>2</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1</v>
+      </c>
+      <c r="U311" t="n">
+        <v>0</v>
+      </c>
+      <c r="V311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -16041,6 +21627,24 @@
       <c r="P312" t="n">
         <v>194770155287.1241</v>
       </c>
+      <c r="Q312" t="n">
+        <v>1</v>
+      </c>
+      <c r="R312" t="n">
+        <v>3</v>
+      </c>
+      <c r="S312" t="n">
+        <v>2</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1</v>
+      </c>
+      <c r="U312" t="n">
+        <v>0</v>
+      </c>
+      <c r="V312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -16091,6 +21695,24 @@
       <c r="P313" t="n">
         <v>156427199733.7485</v>
       </c>
+      <c r="Q313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3</v>
+      </c>
+      <c r="S313" t="n">
+        <v>2</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1</v>
+      </c>
+      <c r="U313" t="n">
+        <v>0</v>
+      </c>
+      <c r="V313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -16141,6 +21763,24 @@
       <c r="P314" t="n">
         <v>131110249509.1331</v>
       </c>
+      <c r="Q314" t="n">
+        <v>1</v>
+      </c>
+      <c r="R314" t="n">
+        <v>3</v>
+      </c>
+      <c r="S314" t="n">
+        <v>2</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1</v>
+      </c>
+      <c r="U314" t="n">
+        <v>0</v>
+      </c>
+      <c r="V314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -16191,6 +21831,24 @@
       <c r="P315" t="n">
         <v>127041607271.9238</v>
       </c>
+      <c r="Q315" t="n">
+        <v>1</v>
+      </c>
+      <c r="R315" t="n">
+        <v>3</v>
+      </c>
+      <c r="S315" t="n">
+        <v>2</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1</v>
+      </c>
+      <c r="U315" t="n">
+        <v>0</v>
+      </c>
+      <c r="V315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -16241,6 +21899,24 @@
       <c r="P316" t="n">
         <v>119924684951.2778</v>
       </c>
+      <c r="Q316" t="n">
+        <v>1</v>
+      </c>
+      <c r="R316" t="n">
+        <v>3</v>
+      </c>
+      <c r="S316" t="n">
+        <v>2</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1</v>
+      </c>
+      <c r="U316" t="n">
+        <v>0</v>
+      </c>
+      <c r="V316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -16291,6 +21967,24 @@
       <c r="P317" t="n">
         <v>131332250562.0331</v>
       </c>
+      <c r="Q317" t="n">
+        <v>1</v>
+      </c>
+      <c r="R317" t="n">
+        <v>3</v>
+      </c>
+      <c r="S317" t="n">
+        <v>2</v>
+      </c>
+      <c r="T317" t="n">
+        <v>1</v>
+      </c>
+      <c r="U317" t="n">
+        <v>0</v>
+      </c>
+      <c r="V317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -16341,6 +22035,24 @@
       <c r="P318" t="n">
         <v>203364067716.2523</v>
       </c>
+      <c r="Q318" t="n">
+        <v>1</v>
+      </c>
+      <c r="R318" t="n">
+        <v>3</v>
+      </c>
+      <c r="S318" t="n">
+        <v>2</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1</v>
+      </c>
+      <c r="U318" t="n">
+        <v>0</v>
+      </c>
+      <c r="V318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -16391,6 +22103,24 @@
       <c r="P319" t="n">
         <v>280898391184.2247</v>
       </c>
+      <c r="Q319" t="n">
+        <v>1</v>
+      </c>
+      <c r="R319" t="n">
+        <v>3</v>
+      </c>
+      <c r="S319" t="n">
+        <v>2</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1</v>
+      </c>
+      <c r="U319" t="n">
+        <v>0</v>
+      </c>
+      <c r="V319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -16441,6 +22171,24 @@
       <c r="P320" t="n">
         <v>284106559259.8356</v>
       </c>
+      <c r="Q320" t="n">
+        <v>1</v>
+      </c>
+      <c r="R320" t="n">
+        <v>3</v>
+      </c>
+      <c r="S320" t="n">
+        <v>2</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1</v>
+      </c>
+      <c r="U320" t="n">
+        <v>0</v>
+      </c>
+      <c r="V320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -16491,6 +22239,24 @@
       <c r="P321" t="n">
         <v>320120046081.0427</v>
       </c>
+      <c r="Q321" t="n">
+        <v>1</v>
+      </c>
+      <c r="R321" t="n">
+        <v>2</v>
+      </c>
+      <c r="S321" t="n">
+        <v>3</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1</v>
+      </c>
+      <c r="U321" t="n">
+        <v>1</v>
+      </c>
+      <c r="V321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -16541,6 +22307,24 @@
       <c r="P322" t="n">
         <v>323789029342.6107</v>
       </c>
+      <c r="Q322" t="n">
+        <v>1</v>
+      </c>
+      <c r="R322" t="n">
+        <v>2</v>
+      </c>
+      <c r="S322" t="n">
+        <v>3</v>
+      </c>
+      <c r="T322" t="n">
+        <v>1</v>
+      </c>
+      <c r="U322" t="n">
+        <v>1</v>
+      </c>
+      <c r="V322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -16591,6 +22375,24 @@
       <c r="P323" t="n">
         <v>310341668122.8041</v>
       </c>
+      <c r="Q323" t="n">
+        <v>1</v>
+      </c>
+      <c r="R323" t="n">
+        <v>2</v>
+      </c>
+      <c r="S323" t="n">
+        <v>3</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1</v>
+      </c>
+      <c r="U323" t="n">
+        <v>1</v>
+      </c>
+      <c r="V323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -16641,6 +22443,24 @@
       <c r="P324" t="n">
         <v>260416879591.8519</v>
       </c>
+      <c r="Q324" t="n">
+        <v>1</v>
+      </c>
+      <c r="R324" t="n">
+        <v>2</v>
+      </c>
+      <c r="S324" t="n">
+        <v>3</v>
+      </c>
+      <c r="T324" t="n">
+        <v>1</v>
+      </c>
+      <c r="U324" t="n">
+        <v>1</v>
+      </c>
+      <c r="V324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16691,6 +22511,24 @@
       <c r="P325" t="n">
         <v>255281832730.6229</v>
       </c>
+      <c r="Q325" t="n">
+        <v>2</v>
+      </c>
+      <c r="R325" t="n">
+        <v>1</v>
+      </c>
+      <c r="S325" t="n">
+        <v>3</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1</v>
+      </c>
+      <c r="U325" t="n">
+        <v>1</v>
+      </c>
+      <c r="V325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16741,6 +22579,24 @@
       <c r="P326" t="n">
         <v>213976931003.5247</v>
       </c>
+      <c r="Q326" t="n">
+        <v>1</v>
+      </c>
+      <c r="R326" t="n">
+        <v>2</v>
+      </c>
+      <c r="S326" t="n">
+        <v>3</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1</v>
+      </c>
+      <c r="U326" t="n">
+        <v>1</v>
+      </c>
+      <c r="V326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16791,6 +22647,24 @@
       <c r="P327" t="n">
         <v>192558886232.3702</v>
       </c>
+      <c r="Q327" t="n">
+        <v>2</v>
+      </c>
+      <c r="R327" t="n">
+        <v>1</v>
+      </c>
+      <c r="S327" t="n">
+        <v>3</v>
+      </c>
+      <c r="T327" t="n">
+        <v>1</v>
+      </c>
+      <c r="U327" t="n">
+        <v>1</v>
+      </c>
+      <c r="V327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16841,6 +22715,24 @@
       <c r="P328" t="n">
         <v>149648738204.3893</v>
       </c>
+      <c r="Q328" t="n">
+        <v>2</v>
+      </c>
+      <c r="R328" t="n">
+        <v>1</v>
+      </c>
+      <c r="S328" t="n">
+        <v>3</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1</v>
+      </c>
+      <c r="U328" t="n">
+        <v>1</v>
+      </c>
+      <c r="V328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16891,6 +22783,24 @@
       <c r="P329" t="n">
         <v>128314497490.8712</v>
       </c>
+      <c r="Q329" t="n">
+        <v>2</v>
+      </c>
+      <c r="R329" t="n">
+        <v>1</v>
+      </c>
+      <c r="S329" t="n">
+        <v>3</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1</v>
+      </c>
+      <c r="U329" t="n">
+        <v>1</v>
+      </c>
+      <c r="V329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16941,6 +22851,24 @@
       <c r="P330" t="n">
         <v>122506681961.0655</v>
       </c>
+      <c r="Q330" t="n">
+        <v>1</v>
+      </c>
+      <c r="R330" t="n">
+        <v>2</v>
+      </c>
+      <c r="S330" t="n">
+        <v>3</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1</v>
+      </c>
+      <c r="U330" t="n">
+        <v>1</v>
+      </c>
+      <c r="V330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16991,6 +22919,24 @@
       <c r="P331" t="n">
         <v>116026667837.6742</v>
       </c>
+      <c r="Q331" t="n">
+        <v>1</v>
+      </c>
+      <c r="R331" t="n">
+        <v>2</v>
+      </c>
+      <c r="S331" t="n">
+        <v>3</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1</v>
+      </c>
+      <c r="U331" t="n">
+        <v>1</v>
+      </c>
+      <c r="V331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -17041,6 +22987,24 @@
       <c r="P332" t="n">
         <v>138162587018.9269</v>
       </c>
+      <c r="Q332" t="n">
+        <v>1</v>
+      </c>
+      <c r="R332" t="n">
+        <v>2</v>
+      </c>
+      <c r="S332" t="n">
+        <v>3</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1</v>
+      </c>
+      <c r="U332" t="n">
+        <v>1</v>
+      </c>
+      <c r="V332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -17091,6 +23055,24 @@
       <c r="P333" t="n">
         <v>173444665996.6599</v>
       </c>
+      <c r="Q333" t="n">
+        <v>1</v>
+      </c>
+      <c r="R333" t="n">
+        <v>2</v>
+      </c>
+      <c r="S333" t="n">
+        <v>3</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1</v>
+      </c>
+      <c r="U333" t="n">
+        <v>1</v>
+      </c>
+      <c r="V333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -17141,6 +23123,24 @@
       <c r="P334" t="n">
         <v>185148896820.7432</v>
       </c>
+      <c r="Q334" t="n">
+        <v>1</v>
+      </c>
+      <c r="R334" t="n">
+        <v>2</v>
+      </c>
+      <c r="S334" t="n">
+        <v>3</v>
+      </c>
+      <c r="T334" t="n">
+        <v>1</v>
+      </c>
+      <c r="U334" t="n">
+        <v>1</v>
+      </c>
+      <c r="V334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -17191,6 +23191,24 @@
       <c r="P335" t="n">
         <v>316790995849.4293</v>
       </c>
+      <c r="Q335" t="n">
+        <v>2</v>
+      </c>
+      <c r="R335" t="n">
+        <v>3</v>
+      </c>
+      <c r="S335" t="n">
+        <v>1</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1</v>
+      </c>
+      <c r="U335" t="n">
+        <v>0</v>
+      </c>
+      <c r="V335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -17241,6 +23259,24 @@
       <c r="P336" t="n">
         <v>507986948708.7867</v>
       </c>
+      <c r="Q336" t="n">
+        <v>2</v>
+      </c>
+      <c r="R336" t="n">
+        <v>3</v>
+      </c>
+      <c r="S336" t="n">
+        <v>1</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1</v>
+      </c>
+      <c r="U336" t="n">
+        <v>0</v>
+      </c>
+      <c r="V336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -17291,6 +23327,24 @@
       <c r="P337" t="n">
         <v>572205074597.1588</v>
       </c>
+      <c r="Q337" t="n">
+        <v>2</v>
+      </c>
+      <c r="R337" t="n">
+        <v>3</v>
+      </c>
+      <c r="S337" t="n">
+        <v>1</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1</v>
+      </c>
+      <c r="U337" t="n">
+        <v>0</v>
+      </c>
+      <c r="V337" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -17341,6 +23395,24 @@
       <c r="P338" t="n">
         <v>592951036469.3523</v>
       </c>
+      <c r="Q338" t="n">
+        <v>2</v>
+      </c>
+      <c r="R338" t="n">
+        <v>3</v>
+      </c>
+      <c r="S338" t="n">
+        <v>1</v>
+      </c>
+      <c r="T338" t="n">
+        <v>1</v>
+      </c>
+      <c r="U338" t="n">
+        <v>0</v>
+      </c>
+      <c r="V338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -17391,6 +23463,24 @@
       <c r="P339" t="n">
         <v>659185668722.2158</v>
       </c>
+      <c r="Q339" t="n">
+        <v>2</v>
+      </c>
+      <c r="R339" t="n">
+        <v>3</v>
+      </c>
+      <c r="S339" t="n">
+        <v>1</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1</v>
+      </c>
+      <c r="U339" t="n">
+        <v>0</v>
+      </c>
+      <c r="V339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -17441,6 +23531,24 @@
       <c r="P340" t="n">
         <v>587925490111.457</v>
       </c>
+      <c r="Q340" t="n">
+        <v>2</v>
+      </c>
+      <c r="R340" t="n">
+        <v>3</v>
+      </c>
+      <c r="S340" t="n">
+        <v>1</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1</v>
+      </c>
+      <c r="U340" t="n">
+        <v>0</v>
+      </c>
+      <c r="V340" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -17491,6 +23599,24 @@
       <c r="P341" t="n">
         <v>419012480797.7183</v>
       </c>
+      <c r="Q341" t="n">
+        <v>2</v>
+      </c>
+      <c r="R341" t="n">
+        <v>3</v>
+      </c>
+      <c r="S341" t="n">
+        <v>1</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1</v>
+      </c>
+      <c r="U341" t="n">
+        <v>0</v>
+      </c>
+      <c r="V341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -17541,6 +23667,24 @@
       <c r="P342" t="n">
         <v>394532083509.6212</v>
       </c>
+      <c r="Q342" t="n">
+        <v>2</v>
+      </c>
+      <c r="R342" t="n">
+        <v>3</v>
+      </c>
+      <c r="S342" t="n">
+        <v>1</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1</v>
+      </c>
+      <c r="U342" t="n">
+        <v>0</v>
+      </c>
+      <c r="V342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -17591,6 +23735,24 @@
       <c r="P343" t="n">
         <v>381107613363.2736</v>
       </c>
+      <c r="Q343" t="n">
+        <v>2</v>
+      </c>
+      <c r="R343" t="n">
+        <v>3</v>
+      </c>
+      <c r="S343" t="n">
+        <v>1</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1</v>
+      </c>
+      <c r="U343" t="n">
+        <v>0</v>
+      </c>
+      <c r="V343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -17641,6 +23803,24 @@
       <c r="P344" t="n">
         <v>340762190478.2269</v>
       </c>
+      <c r="Q344" t="n">
+        <v>2</v>
+      </c>
+      <c r="R344" t="n">
+        <v>3</v>
+      </c>
+      <c r="S344" t="n">
+        <v>1</v>
+      </c>
+      <c r="T344" t="n">
+        <v>1</v>
+      </c>
+      <c r="U344" t="n">
+        <v>0</v>
+      </c>
+      <c r="V344" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17691,6 +23871,24 @@
       <c r="P345" t="n">
         <v>308177301253.2463</v>
       </c>
+      <c r="Q345" t="n">
+        <v>2</v>
+      </c>
+      <c r="R345" t="n">
+        <v>3</v>
+      </c>
+      <c r="S345" t="n">
+        <v>1</v>
+      </c>
+      <c r="T345" t="n">
+        <v>1</v>
+      </c>
+      <c r="U345" t="n">
+        <v>0</v>
+      </c>
+      <c r="V345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17741,6 +23939,24 @@
       <c r="P346" t="n">
         <v>337155397067.448</v>
       </c>
+      <c r="Q346" t="n">
+        <v>2</v>
+      </c>
+      <c r="R346" t="n">
+        <v>3</v>
+      </c>
+      <c r="S346" t="n">
+        <v>1</v>
+      </c>
+      <c r="T346" t="n">
+        <v>1</v>
+      </c>
+      <c r="U346" t="n">
+        <v>0</v>
+      </c>
+      <c r="V346" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17791,6 +24007,24 @@
       <c r="P347" t="n">
         <v>371716693879.1966</v>
       </c>
+      <c r="Q347" t="n">
+        <v>2</v>
+      </c>
+      <c r="R347" t="n">
+        <v>3</v>
+      </c>
+      <c r="S347" t="n">
+        <v>1</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1</v>
+      </c>
+      <c r="U347" t="n">
+        <v>0</v>
+      </c>
+      <c r="V347" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17841,6 +24075,24 @@
       <c r="P348" t="n">
         <v>388051588439.934</v>
       </c>
+      <c r="Q348" t="n">
+        <v>2</v>
+      </c>
+      <c r="R348" t="n">
+        <v>3</v>
+      </c>
+      <c r="S348" t="n">
+        <v>1</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1</v>
+      </c>
+      <c r="U348" t="n">
+        <v>0</v>
+      </c>
+      <c r="V348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17891,6 +24143,24 @@
       <c r="P349" t="n">
         <v>434540485589.567</v>
       </c>
+      <c r="Q349" t="n">
+        <v>2</v>
+      </c>
+      <c r="R349" t="n">
+        <v>3</v>
+      </c>
+      <c r="S349" t="n">
+        <v>1</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1</v>
+      </c>
+      <c r="U349" t="n">
+        <v>0</v>
+      </c>
+      <c r="V349" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17941,6 +24211,24 @@
       <c r="P350" t="n">
         <v>458763961628.4699</v>
       </c>
+      <c r="Q350" t="n">
+        <v>2</v>
+      </c>
+      <c r="R350" t="n">
+        <v>3</v>
+      </c>
+      <c r="S350" t="n">
+        <v>1</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1</v>
+      </c>
+      <c r="U350" t="n">
+        <v>0</v>
+      </c>
+      <c r="V350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17991,6 +24279,24 @@
       <c r="P351" t="n">
         <v>449715656735.3633</v>
       </c>
+      <c r="Q351" t="n">
+        <v>2</v>
+      </c>
+      <c r="R351" t="n">
+        <v>3</v>
+      </c>
+      <c r="S351" t="n">
+        <v>1</v>
+      </c>
+      <c r="T351" t="n">
+        <v>1</v>
+      </c>
+      <c r="U351" t="n">
+        <v>0</v>
+      </c>
+      <c r="V351" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -18041,6 +24347,24 @@
       <c r="P352" t="n">
         <v>509459323279.7556</v>
       </c>
+      <c r="Q352" t="n">
+        <v>2</v>
+      </c>
+      <c r="R352" t="n">
+        <v>3</v>
+      </c>
+      <c r="S352" t="n">
+        <v>1</v>
+      </c>
+      <c r="T352" t="n">
+        <v>1</v>
+      </c>
+      <c r="U352" t="n">
+        <v>0</v>
+      </c>
+      <c r="V352" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -18091,6 +24415,24 @@
       <c r="P353" t="n">
         <v>534154173862.9295</v>
       </c>
+      <c r="Q353" t="n">
+        <v>2</v>
+      </c>
+      <c r="R353" t="n">
+        <v>3</v>
+      </c>
+      <c r="S353" t="n">
+        <v>1</v>
+      </c>
+      <c r="T353" t="n">
+        <v>1</v>
+      </c>
+      <c r="U353" t="n">
+        <v>0</v>
+      </c>
+      <c r="V353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -18141,6 +24483,24 @@
       <c r="P354" t="n">
         <v>526742642670.4977</v>
       </c>
+      <c r="Q354" t="n">
+        <v>2</v>
+      </c>
+      <c r="R354" t="n">
+        <v>3</v>
+      </c>
+      <c r="S354" t="n">
+        <v>1</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1</v>
+      </c>
+      <c r="U354" t="n">
+        <v>0</v>
+      </c>
+      <c r="V354" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -18191,6 +24551,24 @@
       <c r="P355" t="n">
         <v>509270651610.9959</v>
       </c>
+      <c r="Q355" t="n">
+        <v>2</v>
+      </c>
+      <c r="R355" t="n">
+        <v>3</v>
+      </c>
+      <c r="S355" t="n">
+        <v>1</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1</v>
+      </c>
+      <c r="U355" t="n">
+        <v>0</v>
+      </c>
+      <c r="V355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -18241,6 +24619,24 @@
       <c r="P356" t="n">
         <v>535563224413.3345</v>
       </c>
+      <c r="Q356" t="n">
+        <v>2</v>
+      </c>
+      <c r="R356" t="n">
+        <v>3</v>
+      </c>
+      <c r="S356" t="n">
+        <v>1</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1</v>
+      </c>
+      <c r="U356" t="n">
+        <v>0</v>
+      </c>
+      <c r="V356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -18291,6 +24687,24 @@
       <c r="P357" t="n">
         <v>469829113580.2983</v>
       </c>
+      <c r="Q357" t="n">
+        <v>2</v>
+      </c>
+      <c r="R357" t="n">
+        <v>3</v>
+      </c>
+      <c r="S357" t="n">
+        <v>1</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1</v>
+      </c>
+      <c r="U357" t="n">
+        <v>0</v>
+      </c>
+      <c r="V357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -18341,6 +24755,24 @@
       <c r="P358" t="n">
         <v>426656459746.8544</v>
       </c>
+      <c r="Q358" t="n">
+        <v>2</v>
+      </c>
+      <c r="R358" t="n">
+        <v>3</v>
+      </c>
+      <c r="S358" t="n">
+        <v>1</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1</v>
+      </c>
+      <c r="U358" t="n">
+        <v>0</v>
+      </c>
+      <c r="V358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -18391,6 +24823,24 @@
       <c r="P359" t="n">
         <v>407208326203.2302</v>
       </c>
+      <c r="Q359" t="n">
+        <v>1</v>
+      </c>
+      <c r="R359" t="n">
+        <v>3</v>
+      </c>
+      <c r="S359" t="n">
+        <v>2</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1</v>
+      </c>
+      <c r="U359" t="n">
+        <v>0</v>
+      </c>
+      <c r="V359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -18441,6 +24891,24 @@
       <c r="P360" t="n">
         <v>385277375447.1293</v>
       </c>
+      <c r="Q360" t="n">
+        <v>1</v>
+      </c>
+      <c r="R360" t="n">
+        <v>3</v>
+      </c>
+      <c r="S360" t="n">
+        <v>2</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1</v>
+      </c>
+      <c r="U360" t="n">
+        <v>0</v>
+      </c>
+      <c r="V360" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -18491,6 +24959,24 @@
       <c r="P361" t="n">
         <v>362313091056.0618</v>
       </c>
+      <c r="Q361" t="n">
+        <v>1</v>
+      </c>
+      <c r="R361" t="n">
+        <v>3</v>
+      </c>
+      <c r="S361" t="n">
+        <v>2</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1</v>
+      </c>
+      <c r="U361" t="n">
+        <v>0</v>
+      </c>
+      <c r="V361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -18541,6 +25027,24 @@
       <c r="P362" t="n">
         <v>311685775919.0667</v>
       </c>
+      <c r="Q362" t="n">
+        <v>1</v>
+      </c>
+      <c r="R362" t="n">
+        <v>3</v>
+      </c>
+      <c r="S362" t="n">
+        <v>2</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1</v>
+      </c>
+      <c r="U362" t="n">
+        <v>0</v>
+      </c>
+      <c r="V362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -18591,6 +25095,24 @@
       <c r="P363" t="n">
         <v>339427907686.6729</v>
       </c>
+      <c r="Q363" t="n">
+        <v>2</v>
+      </c>
+      <c r="R363" t="n">
+        <v>3</v>
+      </c>
+      <c r="S363" t="n">
+        <v>1</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1</v>
+      </c>
+      <c r="U363" t="n">
+        <v>0</v>
+      </c>
+      <c r="V363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -18641,6 +25163,24 @@
       <c r="P364" t="n">
         <v>314910260472.6378</v>
       </c>
+      <c r="Q364" t="n">
+        <v>2</v>
+      </c>
+      <c r="R364" t="n">
+        <v>3</v>
+      </c>
+      <c r="S364" t="n">
+        <v>1</v>
+      </c>
+      <c r="T364" t="n">
+        <v>1</v>
+      </c>
+      <c r="U364" t="n">
+        <v>0</v>
+      </c>
+      <c r="V364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -18691,6 +25231,24 @@
       <c r="P365" t="n">
         <v>321904155059.904</v>
       </c>
+      <c r="Q365" t="n">
+        <v>2</v>
+      </c>
+      <c r="R365" t="n">
+        <v>3</v>
+      </c>
+      <c r="S365" t="n">
+        <v>1</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1</v>
+      </c>
+      <c r="U365" t="n">
+        <v>0</v>
+      </c>
+      <c r="V365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18706,10 +25264,10 @@
         <v>48291000</v>
       </c>
       <c r="E366" t="n">
-        <v>48606000</v>
+        <v>49010000</v>
       </c>
       <c r="F366" t="n">
-        <v>332379889129.28</v>
+        <v>349509847159.1337</v>
       </c>
       <c r="G366" t="n">
         <v>3355000</v>
@@ -18721,10 +25279,10 @@
         <v>3186000</v>
       </c>
       <c r="J366" t="n">
-        <v>3213000</v>
+        <v>3240000</v>
       </c>
       <c r="K366" t="n">
-        <v>170392141096.2811</v>
+        <v>177317366085.072</v>
       </c>
       <c r="L366" t="n">
         <v>941</v>
@@ -18736,10 +25294,28 @@
         <v>902</v>
       </c>
       <c r="O366" t="n">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="P366" t="n">
-        <v>306336674376.3997</v>
+        <v>319121188184.4557</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>1</v>
+      </c>
+      <c r="R366" t="n">
+        <v>3</v>
+      </c>
+      <c r="S366" t="n">
+        <v>2</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1</v>
+      </c>
+      <c r="U366" t="n">
+        <v>0</v>
+      </c>
+      <c r="V366" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
